--- a/comments.xlsx
+++ b/comments.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,16 @@
           <t>Reply</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Upvotes</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -483,8 +493,16 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Reply</t>
-        </is>
+          <t>Another Reply</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -492,42 +510,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45407.71075054398</v>
+        <v>45407.73553232639</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Riana</t>
+          <t>Riana L</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>This is a test submission again</t>
+          <t xml:space="preserve">Test Question </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Replying to the comment o see if it saves </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45407.71104155911</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Riana</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>This is a test submission again</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t xml:space="preserve">Test Solution </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>🚧</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/comments.xlsx
+++ b/comments.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,16 @@
           <t>Upvotes</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Replies</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -502,8 +512,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -535,6 +547,8 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/comments.xlsx
+++ b/comments.xlsx
@@ -515,7 +515,13 @@
         <v>8</v>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Riana: test
+Riana: test 2
+</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -548,7 +554,11 @@
         <v>0</v>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
